--- a/biology/Mycologie/Peniophora/Peniophora.xlsx
+++ b/biology/Mycologie/Peniophora/Peniophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peniophora est un genre de champignons basidiomycètes lignicoles de la famille des Peniophoraceae.  Le genre est fort répandu, et contient une septantaine d'espèces. Les espèces de Peniophora sont résupinées, de type croûte, et sont décrites comme corticioïdes. Un certain nombre d'espèces de ce genre sont parasitées par d'autres champignons comme la Tremelle mésentérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces du genre Peniophora</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Peniophora adjacens
